--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>9225872d-b01a-43c4-ac00-e729ad82ebe9</t>
+    <t>441a067c-aa86-4b5b-aa90-854351387614</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>441a067c-aa86-4b5b-aa90-854351387614</t>
+    <t>ce39b4a2-3551-492b-8bb4-90daa5c1ff76</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>ce39b4a2-3551-492b-8bb4-90daa5c1ff76</t>
+    <t>be1d4ea7-5551-4a6f-9fe0-878e7d1c293c</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>be1d4ea7-5551-4a6f-9fe0-878e7d1c293c</t>
+    <t>2abee600-c0aa-479d-86b3-a6c38d23756e</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>2abee600-c0aa-479d-86b3-a6c38d23756e</t>
+    <t>1ce39c28-fc8c-47b8-942b-c58e0eca4116</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/backend/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>1ce39c28-fc8c-47b8-942b-c58e0eca4116</t>
+    <t>5f6346a1-194e-4e78-b173-391c4bec67f1</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>
